--- a/biology/Botanique/Tillandsia_suescana/Tillandsia_suescana.xlsx
+++ b/biology/Botanique/Tillandsia_suescana/Tillandsia_suescana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia suescana est une espèce de plantes à fleurs de la famille des Bromeliaceae, originaire de Colombie et du Venezuela. L'épithète suescana se rapporte à la ville de Suesca en Colombie, près de laquelle a été trouvée la plante.
 </t>
@@ -511,13 +523,15 @@
           <t>Protologue et type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tillandsia suescana L.B.Sm., in Contr. U.S. Natl. Herb. 29: 441, fig. 45a-b (1951)
-Diagnose originale[1]
+Diagnose originale
 « T. archeri L. B. Smith atque T. turneri Baker affinis, a priore partibus majoribus, spicis suberectis, densis, a posteriore bracteis primariis brevibus, sepalis majoribus, acutioribus, a ambobus inflorescentia pauciramosa, bracteis florigeris laevibus distinguenda. »
 Type
-leg. M.B. Foster &amp; R. Foster, n° 1801, 1946-10-09 ; « on rock and trees, Suesca, Department of Cundinamarca, Colombia, altitude 2,580 meters »[1] ; Holotypus (1/2) GH (Gray Herbarium) (GH 29459)
+leg. M.B. Foster &amp; R. Foster, n° 1801, 1946-10-09 ; « on rock and trees, Suesca, Department of Cundinamarca, Colombia, altitude 2,580 meters » ; Holotypus (1/2) GH (Gray Herbarium) (GH 29459)
 leg. M.B. Foster &amp; R. Foster, n° 1801, 1946-10-09 ; « on rock and trees, Suesca, Department of Cundinamarca, Colombia, altitude 2,580 meters » ; Holotypus (2/2) GH (Gray Herbarium) (GH 29460)</t>
         </is>
       </c>
@@ -548,10 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Distribution
-L'espèce se rencontre au nord[2] et au centre de la Colombie, notamment dans le département de Tolima[1] et au sud-ouest du Venezuela[2].
-Habitat
-L'espèce se rencontre dans les forêts de nuage[2] entre 2 400 et 2 700 mètres d'altitude[2].
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se rencontre au nord et au centre de la Colombie, notamment dans le département de Tolima et au sud-ouest du Venezuela.
 </t>
         </is>
       </c>
@@ -577,12 +594,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se rencontre dans les forêts de nuage entre 2 400 et 2 700 mètres d'altitude.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tillandsia_suescana</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_suescana</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tillandsia suescana est une plante herbacée en rosette, monocarpique, vivace par ses rejets latéraux, rupicole[1], saxicole[1] ou épiphyte[1],[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia suescana est une plante herbacée en rosette, monocarpique, vivace par ses rejets latéraux, rupicole, saxicole ou épiphyte,.
 </t>
         </is>
       </c>
